--- a/my_products.xlsx
+++ b/my_products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winnie\Desktop\todotest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9255ABB3-DE5E-4189-9146-9DA4A0F19530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25202C9E-66DC-4BCC-B4B7-61964EEA6F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12945" yWindow="435" windowWidth="14235" windowHeight="15150" xr2:uid="{CAB54396-A53E-4F77-A25F-F7C1E16EC892}"/>
+    <workbookView xWindow="975" yWindow="1065" windowWidth="14235" windowHeight="15150" xr2:uid="{CAB54396-A53E-4F77-A25F-F7C1E16EC892}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Category</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Affiliate_Link</t>
   </si>
   <si>
-    <t>Pinterest_Title</t>
-  </si>
-  <si>
     <t>Accessories</t>
   </si>
   <si>
@@ -65,39 +62,24 @@
     <t>The ultimate Toronto winter staple. Keeps you warm and stylish during the GTA commute.</t>
   </si>
   <si>
-    <t>Must-have Winter Beanie for Toronto</t>
-  </si>
-  <si>
     <t>Clothing</t>
   </si>
   <si>
     <t>A perfect affordable alternative for Lululemon. Ideal for Humber students heading to the gym or class.</t>
   </si>
   <si>
-    <t>Best Amazon Activewear Dupe 2026</t>
-  </si>
-  <si>
     <t>Over 30,000+ 5-star reviews. Elevate your everyday campus look without breaking the bank.</t>
   </si>
   <si>
-    <t>Top Rated Amazon Jewelry Finds</t>
-  </si>
-  <si>
     <t>Essential for layering in Ontario's unpredictable weather. Cozy, durable, and budget-friendly.</t>
   </si>
   <si>
-    <t>Basic Essentials for College Life</t>
-  </si>
-  <si>
     <t>Shoes</t>
   </si>
   <si>
     <t>The go-to indoor shoes for Toronto condos. Easy to clean and incredibly comfortable.</t>
   </si>
   <si>
-    <t>Best Comfort Shoes for Home</t>
-  </si>
-  <si>
     <t>https://amzn.to/49UgO5T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,6 +133,22 @@
   </si>
   <si>
     <t>carhartt_hat.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC Picks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toronto Base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amazon Top Choice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -219,17 +217,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -567,28 +568,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0C2E47-2D54-45B1-933A-B72CECBAEA28}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="35.7109375" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -600,7 +601,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -608,100 +609,103 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/my_products.xlsx
+++ b/my_products.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winnie\Desktop\todotest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25202C9E-66DC-4BCC-B4B7-61964EEA6F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAE94D0-972A-478F-9D07-B482EBC2F18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="1065" windowWidth="14235" windowHeight="15150" xr2:uid="{CAB54396-A53E-4F77-A25F-F7C1E16EC892}"/>
+    <workbookView xWindow="6525" yWindow="1410" windowWidth="21600" windowHeight="13920" xr2:uid="{CAB54396-A53E-4F77-A25F-F7C1E16EC892}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$10</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
   <si>
     <t>Category</t>
   </si>
@@ -65,9 +68,6 @@
     <t>Clothing</t>
   </si>
   <si>
-    <t>A perfect affordable alternative for Lululemon. Ideal for Humber students heading to the gym or class.</t>
-  </si>
-  <si>
     <t>Over 30,000+ 5-star reviews. Elevate your everyday campus look without breaking the bank.</t>
   </si>
   <si>
@@ -88,34 +88,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://amzn.to/3M0BUX6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PAVOI 14K Gold Plated Lightweight Hoops</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://amzn.to/45Kpj0R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Gildan Adult Fleece Hooded Sweatshirt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://amzn.to/4t7ZZfn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Crocs Unisex Classic Clogs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://amzn.to/4qfN0Wj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>crocs.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,12 +128,202 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Toronto Base</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Amazon Top Choice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Pimple Popper Tool Kit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>popper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://amzn.to/4btAwqf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epsoak Tea tree Oil Foot Soak with Epsom Salt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://amzn.to/4acEwcq</t>
+  </si>
+  <si>
+    <t>foot salt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collapsible Foot Spa Electric Rotary Massage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Foot Spa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://amzn.to/4reeVqZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amazon choice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://amzn.to/4keaedG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://amzn.to/45Jt9az</t>
+  </si>
+  <si>
+    <t>https://amzn.to/45Jt9Y7</t>
+  </si>
+  <si>
+    <t>https://amzn.to/4tdKLoX</t>
+  </si>
+  <si>
+    <t>Y-Kelin Dental Floss Picks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://amzn.to/4teoszn</t>
+  </si>
+  <si>
+    <t>Floss Picks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dr. Scholl's Extra Support Insole Orthotics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dr. Scholl-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://amzn.to/4c3G0YT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dr. Scholl's® All-Purpose Sport &amp; Fitness Comfort Insoles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://amzn.to/4a96ipZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dr. Scholl-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vagisil Wipes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vagisil Wipes-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://amzn.to/3LLCk3y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vagisil Feminine Wash for Intimate Areas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vagisil-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://amzn.to/4a0BzLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vagisil Wipes-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://amzn.to/45N87Yt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wool Dryer Balls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://amzn.to/4rrxyXZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pyunkang Yul Calming Moisture Serum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://amzn.to/4tueFpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vaseline Petroleum Jelly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vaseline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://amzn.to/4qWIjSk</t>
+  </si>
+  <si>
+    <t>Beauty</t>
+  </si>
+  <si>
+    <t>Professional stainless steel acne removal tool kit to help remove blackheads and blemishes hygienically.</t>
+  </si>
+  <si>
+    <t>Relaxing Epsom salt soak with tea tree oil to soothe tired feet and soften skin.</t>
+  </si>
+  <si>
+    <t>Electric foot spa with rotary massage and heat, collapsible for easy storage.</t>
+  </si>
+  <si>
+    <t>High-quality yoga pants in Morandi colors, featuring extremely soft fabric with excellent stretch. Widely recognized as the best affordable alternative to Lululemon Align, perfect for Humber students heading to the gym or class.</t>
+  </si>
+  <si>
+    <t>Personal Care</t>
+  </si>
+  <si>
+    <t>Convenient dental floss picks designed for effective and easy daily oral hygiene.</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Extra support orthotic insoles that relieve foot and leg fatigue for all-day comfort.</t>
+  </si>
+  <si>
+    <t>Sport and fitness insoles that provide superior shock absorption and comfort during workouts.</t>
+  </si>
+  <si>
+    <t>Individually wrapped feminine wipes for gentle cleansing and freshness anytime, anywhere.</t>
+  </si>
+  <si>
+    <t>pH-balanced feminine wash for daily gentle cleansing of sensitive intimate areas.</t>
+  </si>
+  <si>
+    <t>Household</t>
+  </si>
+  <si>
+    <t>Natural wool dryer balls that reduce drying time, eliminate static, and soften fabrics.</t>
+  </si>
+  <si>
+    <t>A soothing and hydrating serum specifically formulated for sensitive and reactive skin.</t>
+  </si>
+  <si>
+    <t>Pure petroleum jelly that locks in moisture to help heal and protect dry, damaged skin.</t>
   </si>
 </sst>
 </file>
@@ -217,7 +391,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -230,7 +404,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -568,17 +748,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0C2E47-2D54-45B1-933A-B72CECBAEA28}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
@@ -601,10 +781,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -615,106 +795,350 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="E9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F10" xr:uid="{7A0C2E47-2D54-45B1-933A-B72CECBAEA28}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{67D8EDC2-B7F8-48A7-BA63-46547C19287E}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{C1841E81-2EC0-4517-827C-A5B5A5AB3530}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{AC4ABA20-988A-4DA7-80E4-64AF83FCE748}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{DE3F4FB6-8B98-4790-8DC8-265BBD522847}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{B9733D82-81BD-48F4-934E-4B9433BDFFAA}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{D1B5AF86-E5E6-477C-9574-9009918850C8}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{863AD5F2-2FCA-473F-BFD4-6FAF7D5B4162}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{11202420-65DA-4871-9C36-42D3877C0ECB}"/>
+    <hyperlink ref="E11" r:id="rId5" xr:uid="{DA391D09-CD0B-471F-A53F-EC34A2DFB204}"/>
+    <hyperlink ref="E12" r:id="rId6" xr:uid="{E723B19C-A029-4FA3-BD64-09292492BE84}"/>
+    <hyperlink ref="E13" r:id="rId7" xr:uid="{B974BEE1-9181-40B5-86E6-9B38FDFBC7EE}"/>
+    <hyperlink ref="E14" r:id="rId8" xr:uid="{0CEC6903-F9F1-4FB8-87B9-330BCCA61BC5}"/>
+    <hyperlink ref="E15" r:id="rId9" xr:uid="{9BE0FF26-0C20-4CEF-87EB-E0BB0CD90015}"/>
+    <hyperlink ref="E16" r:id="rId10" xr:uid="{89DD8912-9CF2-4D98-B41F-52D728DFAE6F}"/>
+    <hyperlink ref="E17" r:id="rId11" xr:uid="{1F8D6428-953A-40A1-9FF2-5DD80165494C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/my_products.xlsx
+++ b/my_products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winnie\Desktop\todotest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAE94D0-972A-478F-9D07-B482EBC2F18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81405462-639C-47E5-BD08-64307BF16A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6525" yWindow="1410" windowWidth="21600" windowHeight="13920" xr2:uid="{CAB54396-A53E-4F77-A25F-F7C1E16EC892}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
   <si>
     <t>Category</t>
   </si>
@@ -132,10 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>popper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://amzn.to/4btAwqf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,18 +143,10 @@
     <t>https://amzn.to/4acEwcq</t>
   </si>
   <si>
-    <t>foot salt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Collapsible Foot Spa Electric Rotary Massage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Foot Spa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://amzn.to/4reeVqZ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,18 +175,10 @@
     <t>https://amzn.to/4teoszn</t>
   </si>
   <si>
-    <t>Floss Picks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dr. Scholl's Extra Support Insole Orthotics</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Dr. Scholl-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://amzn.to/4c3G0YT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,18 +191,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Dr. Scholl-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Vagisil Wipes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Vagisil Wipes-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://amzn.to/3LLCk3y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,18 +203,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Vagisil-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://amzn.to/4a0BzLK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Vagisil Wipes-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://amzn.to/45N87Yt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -259,10 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Serum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://amzn.to/4tueFpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,10 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Vaseline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://amzn.to/4qWIjSk</t>
   </si>
   <si>
@@ -324,6 +280,58 @@
   </si>
   <si>
     <t>Pure petroleum jelly that locks in moisture to help heal and protect dry, damaged skin.</t>
+  </si>
+  <si>
+    <t>Toronto Base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>popper.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foot .jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Foot Spa.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Floss Picks.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dr. Scholl-1.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dr. Scholl-2.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vagisil Wipes-1.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vagisil-1.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serum.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vagisil Wipes-2.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wool Dryer Balls.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vaseline.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -751,7 +759,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,7 +792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -801,44 +809,44 @@
         <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>24</v>
@@ -846,19 +854,19 @@
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>24</v>
@@ -872,16 +880,16 @@
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -898,10 +906,10 @@
         <v>20</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -918,10 +926,10 @@
         <v>19</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -938,27 +946,27 @@
         <v>18</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>24</v>
@@ -966,19 +974,19 @@
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>24</v>
@@ -986,39 +994,39 @@
     </row>
     <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>24</v>
@@ -1026,59 +1034,59 @@
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>24</v>
@@ -1086,19 +1094,19 @@
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="E17" s="4" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>24</v>
@@ -1106,19 +1114,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>24</v>

--- a/my_products.xlsx
+++ b/my_products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winnie\Desktop\todotest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81405462-639C-47E5-BD08-64307BF16A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C467A3-D59C-45AE-AB97-F3D105912CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6525" yWindow="1410" windowWidth="21600" windowHeight="13920" xr2:uid="{CAB54396-A53E-4F77-A25F-F7C1E16EC892}"/>
   </bookViews>
@@ -151,10 +151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Amazon choice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://amzn.to/4keaedG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -290,10 +286,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>foot .jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Foot Spa.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -331,6 +323,14 @@
   </si>
   <si>
     <t>Vaseline.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foot.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amazon Choice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0C2E47-2D54-45B1-933A-B72CECBAEA28}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,7 +809,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -817,13 +817,13 @@
         <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>26</v>
@@ -837,13 +837,13 @@
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>28</v>
@@ -857,13 +857,13 @@
         <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>30</v>
@@ -872,7 +872,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -880,19 +880,19 @@
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -906,13 +906,13 @@
         <v>20</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -926,13 +926,13 @@
         <v>19</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -946,27 +946,27 @@
         <v>18</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>24</v>
@@ -974,19 +974,19 @@
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>24</v>
@@ -994,19 +994,19 @@
     </row>
     <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>24</v>
@@ -1014,19 +1014,19 @@
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>24</v>
@@ -1034,19 +1034,19 @@
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>24</v>
@@ -1054,19 +1054,19 @@
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>24</v>
@@ -1074,19 +1074,19 @@
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>24</v>
@@ -1094,19 +1094,19 @@
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>24</v>
@@ -1114,19 +1114,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" t="s">
         <v>51</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" t="s">
-        <v>52</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>24</v>

--- a/my_products.xlsx
+++ b/my_products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winnie\Desktop\todotest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C467A3-D59C-45AE-AB97-F3D105912CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21C3359-2C8F-4B40-ABEB-D335D4C7AAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6525" yWindow="1410" windowWidth="21600" windowHeight="13920" xr2:uid="{CAB54396-A53E-4F77-A25F-F7C1E16EC892}"/>
   </bookViews>
@@ -326,11 +326,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>foot.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Amazon Choice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foot salt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0C2E47-2D54-45B1-933A-B72CECBAEA28}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,7 +843,7 @@
         <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>28</v>
@@ -889,7 +889,7 @@
         <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -909,7 +909,7 @@
         <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -929,7 +929,7 @@
         <v>33</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -949,7 +949,7 @@
         <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">

--- a/my_products.xlsx
+++ b/my_products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winnie\Desktop\todotest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21C3359-2C8F-4B40-ABEB-D335D4C7AAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293C1DDA-F0AE-4C68-80A2-B23BE462E6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6525" yWindow="1410" windowWidth="21600" windowHeight="13920" xr2:uid="{CAB54396-A53E-4F77-A25F-F7C1E16EC892}"/>
   </bookViews>
@@ -330,7 +330,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>foot salt</t>
+    <t>foot salt.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0C2E47-2D54-45B1-933A-B72CECBAEA28}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
